--- a/biology/Zoologie/Dermochelyidae/Dermochelyidae.xlsx
+++ b/biology/Zoologie/Dermochelyidae/Dermochelyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dermochelyidae sont une famille de tortues.
-Les Dermochelyidae et les Protostegidae sont parfois regroupés dans la super famille des Dermochelyoidea[1],[2] et dans les Chelonioidea.
+Les Dermochelyidae et les Protostegidae sont parfois regroupés dans la super famille des Dermochelyoidea, et dans les Chelonioidea.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tortue luth, seule espèce actuelle de cette famille, est en danger  d'extinction du fait de l'action de l'homme.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dermochelyidae se caractérisent par l'absence sur leur carapace de corne et d'écaille, et dont les os forment des ondulations très reconnaissables.
 Les os du plastron forment de larges fontanelles, pour cette raison, la carapace en est très allégée. Un cuir épais remplace la carapace.
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 genre Dermochelys Blainville, 1816
 et les genres fossiles :
 genre †Cardiochelys
@@ -616,9 +634,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification présentée ici est celle de Ren Hirayama (1997, 1997), Lapparent de Broin (2000), et Parham (2005)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification présentée ici est celle de Ren Hirayama (1997, 1997), Lapparent de Broin (2000), et Parham (2005).
 --o Chelonioidea Oppel, 1811
   |-- †Toxochelyidae Baur, 1895
   |-- Cheloniidae Oppel, 1811 les tortues marines
@@ -638,7 +658,7 @@
         |--o ...† Chelosphargis
         |--o ...† Protostega 
         `--o ...† Archelon
-La taxonomie précise de ces espèces a beaucoup évolué depuis les années 1970. Il a été montré que les Dermochelys étaient proches des autres tortues marines et placées dans la même super-famille[4]. Les espèces qui partagent les mêmes caractères morphologiques ont donc été regroupées par synapomorphie parmi les Dermochelyidae.
+La taxonomie précise de ces espèces a beaucoup évolué depuis les années 1970. Il a été montré que les Dermochelys étaient proches des autres tortues marines et placées dans la même super-famille. Les espèces qui partagent les mêmes caractères morphologiques ont donc été regroupées par synapomorphie parmi les Dermochelyidae.
 </t>
         </is>
       </c>
@@ -667,7 +687,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
